--- a/Protocol/20171212_FAME Protocol GC Sequence.xlsx
+++ b/Protocol/20171212_FAME Protocol GC Sequence.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbrown\Documents\CRU 2016 -\SOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\jbrown\Documents\GitHub\Instrumentation\Protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA08939-B358-4BA7-8078-8159E99D15A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>GC FID Sequence Template</t>
   </si>
@@ -35,15 +36,6 @@
     <t>Sequence #</t>
   </si>
   <si>
-    <t>Reaction Blank</t>
-  </si>
-  <si>
-    <t>Triglyceride Standard</t>
-  </si>
-  <si>
-    <t>FAME Standard</t>
-  </si>
-  <si>
     <t>Sample 1</t>
   </si>
   <si>
@@ -74,28 +66,19 @@
     <t>Sample 10</t>
   </si>
   <si>
-    <t>Sample 11</t>
-  </si>
-  <si>
-    <t>Sample 12</t>
-  </si>
-  <si>
-    <t>Sample 13</t>
-  </si>
-  <si>
-    <t>Sample 14</t>
-  </si>
-  <si>
-    <t>Sample 15</t>
-  </si>
-  <si>
     <t>Instrument Blank with Sleep Method</t>
+  </si>
+  <si>
+    <t>Process blank</t>
+  </si>
+  <si>
+    <t>Instrument Blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,24 +164,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -233,6 +198,24 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -247,11 +230,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B34" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:B34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B22" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Sequence #" dataDxfId="3"/>
-    <tableColumn id="2" name="GC FID Sequence Template" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sequence #" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="GC FID Sequence Template" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,17 +502,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B34"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -569,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -577,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -601,7 +584,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -609,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -617,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -625,7 +608,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -633,7 +616,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -641,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -649,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -657,7 +640,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -665,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -673,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -681,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -689,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -697,7 +680,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -705,103 +688,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
